--- a/data/raw/election/voters-age-sex-education/2023/Zonguldak.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Zonguldak.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-17:05:51-18617070858" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="37">
   <si>
     <t>Zonguldak</t>
   </si>
@@ -125,6 +124,12 @@
   </si>
   <si>
     <t>Zonguldak Merkez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -672,16 +677,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,11 +1020,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:A214"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1025,52 +1037,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1127,8 +1139,8 @@
       <c r="G6" s="4">
         <v>385</v>
       </c>
-      <c r="H6" s="4">
-        <v>1.431</v>
+      <c r="H6" s="5">
+        <v>1431</v>
       </c>
       <c r="I6" s="4">
         <v>291</v>
@@ -1142,8 +1154,8 @@
       <c r="L6" s="4">
         <v>13</v>
       </c>
-      <c r="M6" s="5">
-        <v>2.1259999999999999</v>
+      <c r="M6" s="6">
+        <v>2126</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1166,8 +1178,8 @@
       <c r="G7" s="4">
         <v>336</v>
       </c>
-      <c r="H7" s="4">
-        <v>1.284</v>
+      <c r="H7" s="5">
+        <v>1284</v>
       </c>
       <c r="I7" s="4">
         <v>449</v>
@@ -1181,8 +1193,8 @@
       <c r="L7" s="4">
         <v>2</v>
       </c>
-      <c r="M7" s="5">
-        <v>2.077</v>
+      <c r="M7" s="6">
+        <v>2077</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1222,8 +1234,8 @@
       <c r="L8" s="4">
         <v>6</v>
       </c>
-      <c r="M8" s="5">
-        <v>1.383</v>
+      <c r="M8" s="6">
+        <v>1383</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1261,8 +1273,8 @@
       <c r="L9" s="4">
         <v>4</v>
       </c>
-      <c r="M9" s="5">
-        <v>1.27</v>
+      <c r="M9" s="6">
+        <v>1270</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1302,8 +1314,8 @@
       <c r="L10" s="4">
         <v>2</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.282</v>
+      <c r="M10" s="6">
+        <v>1282</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1341,8 +1353,8 @@
       <c r="L11" s="4">
         <v>5</v>
       </c>
-      <c r="M11" s="5">
-        <v>1.3180000000000001</v>
+      <c r="M11" s="6">
+        <v>1318</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1382,8 +1394,8 @@
       <c r="L12" s="4">
         <v>9</v>
       </c>
-      <c r="M12" s="5">
-        <v>1.534</v>
+      <c r="M12" s="6">
+        <v>1534</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1421,8 +1433,8 @@
       <c r="L13" s="4">
         <v>4</v>
       </c>
-      <c r="M13" s="5">
-        <v>1.429</v>
+      <c r="M13" s="6">
+        <v>1429</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1462,8 +1474,8 @@
       <c r="L14" s="4">
         <v>7</v>
       </c>
-      <c r="M14" s="5">
-        <v>1.5940000000000001</v>
+      <c r="M14" s="6">
+        <v>1594</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1501,8 +1513,8 @@
       <c r="L15" s="4">
         <v>9</v>
       </c>
-      <c r="M15" s="5">
-        <v>1.5720000000000001</v>
+      <c r="M15" s="6">
+        <v>1572</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1542,8 +1554,8 @@
       <c r="L16" s="4">
         <v>12</v>
       </c>
-      <c r="M16" s="5">
-        <v>1.5569999999999999</v>
+      <c r="M16" s="6">
+        <v>1557</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1581,8 +1593,8 @@
       <c r="L17" s="4">
         <v>8</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.52</v>
+      <c r="M17" s="6">
+        <v>1520</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1622,8 +1634,8 @@
       <c r="L18" s="4">
         <v>10</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.4370000000000001</v>
+      <c r="M18" s="6">
+        <v>1437</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1661,8 +1673,8 @@
       <c r="L19" s="4">
         <v>9</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.4970000000000001</v>
+      <c r="M19" s="6">
+        <v>1497</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1702,8 +1714,8 @@
       <c r="L20" s="4">
         <v>16</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.393</v>
+      <c r="M20" s="6">
+        <v>1393</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1741,8 +1753,8 @@
       <c r="L21" s="4">
         <v>12</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.538</v>
+      <c r="M21" s="6">
+        <v>1538</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1782,8 +1794,8 @@
       <c r="L22" s="4">
         <v>11</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.3440000000000001</v>
+      <c r="M22" s="6">
+        <v>1344</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1821,8 +1833,8 @@
       <c r="L23" s="4">
         <v>15</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.4339999999999999</v>
+      <c r="M23" s="6">
+        <v>1434</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1862,8 +1874,8 @@
       <c r="L24" s="4">
         <v>10</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.1160000000000001</v>
+      <c r="M24" s="6">
+        <v>1116</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1901,8 +1913,8 @@
       <c r="L25" s="4">
         <v>11</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.296</v>
+      <c r="M25" s="6">
+        <v>1296</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,7 +1954,7 @@
       <c r="L26" s="4">
         <v>5</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>703</v>
       </c>
     </row>
@@ -1981,7 +1993,7 @@
       <c r="L27" s="4">
         <v>19</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>821</v>
       </c>
     </row>
@@ -2022,7 +2034,7 @@
       <c r="L28" s="4">
         <v>22</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>780</v>
       </c>
     </row>
@@ -2061,54 +2073,54 @@
       <c r="L29" s="4">
         <v>11</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.0649999999999999</v>
+      <c r="M29" s="6">
+        <v>1065</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>1.367</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="E30" s="5">
-        <v>9.2769999999999992</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3.7839999999999998</v>
-      </c>
-      <c r="G30" s="5">
-        <v>3.8109999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>9.19</v>
-      </c>
-      <c r="I30" s="5">
-        <v>3.8980000000000001</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6">
+        <v>1367</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1203</v>
+      </c>
+      <c r="E30" s="6">
+        <v>9277</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3784</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3811</v>
+      </c>
+      <c r="H30" s="6">
+        <v>9190</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3898</v>
+      </c>
+      <c r="J30" s="7">
         <v>293</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <v>31</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>232</v>
       </c>
-      <c r="M30" s="5">
-        <v>33.085999999999999</v>
+      <c r="M30" s="6">
+        <v>33086</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2165,8 +2177,8 @@
       <c r="G32" s="4">
         <v>706</v>
       </c>
-      <c r="H32" s="4">
-        <v>2.69</v>
+      <c r="H32" s="5">
+        <v>2690</v>
       </c>
       <c r="I32" s="4">
         <v>658</v>
@@ -2180,8 +2192,8 @@
       <c r="L32" s="4">
         <v>41</v>
       </c>
-      <c r="M32" s="5">
-        <v>4.1109999999999998</v>
+      <c r="M32" s="6">
+        <v>4111</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2204,8 +2216,8 @@
       <c r="G33" s="4">
         <v>496</v>
       </c>
-      <c r="H33" s="4">
-        <v>2.3340000000000001</v>
+      <c r="H33" s="5">
+        <v>2334</v>
       </c>
       <c r="I33" s="4">
         <v>841</v>
@@ -2219,8 +2231,8 @@
       <c r="L33" s="4">
         <v>14</v>
       </c>
-      <c r="M33" s="5">
-        <v>3.7050000000000001</v>
+      <c r="M33" s="6">
+        <v>3705</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2248,8 +2260,8 @@
       <c r="H34" s="4">
         <v>954</v>
       </c>
-      <c r="I34" s="4">
-        <v>1.095</v>
+      <c r="I34" s="5">
+        <v>1095</v>
       </c>
       <c r="J34" s="4">
         <v>52</v>
@@ -2260,8 +2272,8 @@
       <c r="L34" s="4">
         <v>17</v>
       </c>
-      <c r="M34" s="5">
-        <v>2.7250000000000001</v>
+      <c r="M34" s="6">
+        <v>2725</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2287,8 +2299,8 @@
       <c r="H35" s="4">
         <v>535</v>
       </c>
-      <c r="I35" s="4">
-        <v>1.18</v>
+      <c r="I35" s="5">
+        <v>1180</v>
       </c>
       <c r="J35" s="4">
         <v>72</v>
@@ -2299,8 +2311,8 @@
       <c r="L35" s="4">
         <v>13</v>
       </c>
-      <c r="M35" s="5">
-        <v>2.419</v>
+      <c r="M35" s="6">
+        <v>2419</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2325,8 +2337,8 @@
       <c r="G36" s="4">
         <v>274</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.02</v>
+      <c r="H36" s="5">
+        <v>1020</v>
       </c>
       <c r="I36" s="4">
         <v>844</v>
@@ -2340,8 +2352,8 @@
       <c r="L36" s="4">
         <v>13</v>
       </c>
-      <c r="M36" s="5">
-        <v>2.6469999999999998</v>
+      <c r="M36" s="6">
+        <v>2647</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2379,8 +2391,8 @@
       <c r="L37" s="4">
         <v>14</v>
       </c>
-      <c r="M37" s="5">
-        <v>2.4009999999999998</v>
+      <c r="M37" s="6">
+        <v>2401</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2405,8 +2417,8 @@
       <c r="G38" s="4">
         <v>322</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.2430000000000001</v>
+      <c r="H38" s="5">
+        <v>1243</v>
       </c>
       <c r="I38" s="4">
         <v>698</v>
@@ -2420,8 +2432,8 @@
       <c r="L38" s="4">
         <v>18</v>
       </c>
-      <c r="M38" s="5">
-        <v>3.113</v>
+      <c r="M38" s="6">
+        <v>3113</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2459,8 +2471,8 @@
       <c r="L39" s="4">
         <v>7</v>
       </c>
-      <c r="M39" s="5">
-        <v>2.9889999999999999</v>
+      <c r="M39" s="6">
+        <v>2989</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2485,8 +2497,8 @@
       <c r="G40" s="4">
         <v>788</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.3740000000000001</v>
+      <c r="H40" s="5">
+        <v>1374</v>
       </c>
       <c r="I40" s="4">
         <v>535</v>
@@ -2500,8 +2512,8 @@
       <c r="L40" s="4">
         <v>19</v>
       </c>
-      <c r="M40" s="5">
-        <v>3.6459999999999999</v>
+      <c r="M40" s="6">
+        <v>3646</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,8 +2527,8 @@
       <c r="D41" s="4">
         <v>17</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.0680000000000001</v>
+      <c r="E41" s="5">
+        <v>1068</v>
       </c>
       <c r="F41" s="4">
         <v>572</v>
@@ -2539,8 +2551,8 @@
       <c r="L41" s="4">
         <v>11</v>
       </c>
-      <c r="M41" s="5">
-        <v>3.4740000000000002</v>
+      <c r="M41" s="6">
+        <v>3474</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2565,8 +2577,8 @@
       <c r="G42" s="4">
         <v>569</v>
       </c>
-      <c r="H42" s="4">
-        <v>1.1779999999999999</v>
+      <c r="H42" s="5">
+        <v>1178</v>
       </c>
       <c r="I42" s="4">
         <v>446</v>
@@ -2580,8 +2592,8 @@
       <c r="L42" s="4">
         <v>21</v>
       </c>
-      <c r="M42" s="5">
-        <v>3.3519999999999999</v>
+      <c r="M42" s="6">
+        <v>3352</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2595,8 +2607,8 @@
       <c r="D43" s="4">
         <v>14</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.4339999999999999</v>
+      <c r="E43" s="5">
+        <v>1434</v>
       </c>
       <c r="F43" s="4">
         <v>601</v>
@@ -2619,8 +2631,8 @@
       <c r="L43" s="4">
         <v>21</v>
       </c>
-      <c r="M43" s="5">
-        <v>3.3159999999999998</v>
+      <c r="M43" s="6">
+        <v>3316</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2660,8 +2672,8 @@
       <c r="L44" s="4">
         <v>43</v>
       </c>
-      <c r="M44" s="5">
-        <v>3.1549999999999998</v>
+      <c r="M44" s="6">
+        <v>3155</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2675,8 +2687,8 @@
       <c r="D45" s="4">
         <v>54</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.875</v>
+      <c r="E45" s="5">
+        <v>1875</v>
       </c>
       <c r="F45" s="4">
         <v>568</v>
@@ -2699,8 +2711,8 @@
       <c r="L45" s="4">
         <v>55</v>
       </c>
-      <c r="M45" s="5">
-        <v>3.49</v>
+      <c r="M45" s="6">
+        <v>3490</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2716,8 +2728,8 @@
       <c r="D46" s="4">
         <v>12</v>
       </c>
-      <c r="E46" s="4">
-        <v>1.0429999999999999</v>
+      <c r="E46" s="5">
+        <v>1043</v>
       </c>
       <c r="F46" s="4">
         <v>598</v>
@@ -2740,8 +2752,8 @@
       <c r="L46" s="4">
         <v>58</v>
       </c>
-      <c r="M46" s="5">
-        <v>3.1179999999999999</v>
+      <c r="M46" s="6">
+        <v>3118</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,8 +2767,8 @@
       <c r="D47" s="4">
         <v>174</v>
       </c>
-      <c r="E47" s="4">
-        <v>2.133</v>
+      <c r="E47" s="5">
+        <v>2133</v>
       </c>
       <c r="F47" s="4">
         <v>358</v>
@@ -2779,8 +2791,8 @@
       <c r="L47" s="4">
         <v>49</v>
       </c>
-      <c r="M47" s="5">
-        <v>3.3780000000000001</v>
+      <c r="M47" s="6">
+        <v>3378</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2796,8 +2808,8 @@
       <c r="D48" s="4">
         <v>31</v>
       </c>
-      <c r="E48" s="4">
-        <v>1.776</v>
+      <c r="E48" s="5">
+        <v>1776</v>
       </c>
       <c r="F48" s="4">
         <v>300</v>
@@ -2820,8 +2832,8 @@
       <c r="L48" s="4">
         <v>50</v>
       </c>
-      <c r="M48" s="5">
-        <v>3.2559999999999998</v>
+      <c r="M48" s="6">
+        <v>3256</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2835,8 +2847,8 @@
       <c r="D49" s="4">
         <v>472</v>
       </c>
-      <c r="E49" s="4">
-        <v>2.1989999999999998</v>
+      <c r="E49" s="5">
+        <v>2199</v>
       </c>
       <c r="F49" s="4">
         <v>210</v>
@@ -2859,8 +2871,8 @@
       <c r="L49" s="4">
         <v>45</v>
       </c>
-      <c r="M49" s="5">
-        <v>3.6549999999999998</v>
+      <c r="M49" s="6">
+        <v>3655</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2876,8 +2888,8 @@
       <c r="D50" s="4">
         <v>43</v>
       </c>
-      <c r="E50" s="4">
-        <v>2.0139999999999998</v>
+      <c r="E50" s="5">
+        <v>2014</v>
       </c>
       <c r="F50" s="4">
         <v>96</v>
@@ -2900,8 +2912,8 @@
       <c r="L50" s="4">
         <v>24</v>
       </c>
-      <c r="M50" s="5">
-        <v>2.919</v>
+      <c r="M50" s="6">
+        <v>2919</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2915,8 +2927,8 @@
       <c r="D51" s="4">
         <v>725</v>
       </c>
-      <c r="E51" s="4">
-        <v>1.635</v>
+      <c r="E51" s="5">
+        <v>1635</v>
       </c>
       <c r="F51" s="4">
         <v>57</v>
@@ -2939,8 +2951,8 @@
       <c r="L51" s="4">
         <v>41</v>
       </c>
-      <c r="M51" s="5">
-        <v>3.3620000000000001</v>
+      <c r="M51" s="6">
+        <v>3362</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2956,8 +2968,8 @@
       <c r="D52" s="4">
         <v>119</v>
       </c>
-      <c r="E52" s="4">
-        <v>1.696</v>
+      <c r="E52" s="5">
+        <v>1696</v>
       </c>
       <c r="F52" s="4">
         <v>32</v>
@@ -2980,8 +2992,8 @@
       <c r="L52" s="4">
         <v>13</v>
       </c>
-      <c r="M52" s="5">
-        <v>2.2759999999999998</v>
+      <c r="M52" s="6">
+        <v>2276</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3019,8 +3031,8 @@
       <c r="L53" s="4">
         <v>33</v>
       </c>
-      <c r="M53" s="5">
-        <v>2.4929999999999999</v>
+      <c r="M53" s="6">
+        <v>2493</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3036,8 +3048,8 @@
       <c r="D54" s="4">
         <v>322</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.401</v>
+      <c r="E54" s="5">
+        <v>1401</v>
       </c>
       <c r="F54" s="4">
         <v>16</v>
@@ -3060,8 +3072,8 @@
       <c r="L54" s="4">
         <v>51</v>
       </c>
-      <c r="M54" s="5">
-        <v>2.1819999999999999</v>
+      <c r="M54" s="6">
+        <v>2182</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3069,8 +3081,8 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.415</v>
+      <c r="C55" s="5">
+        <v>1415</v>
       </c>
       <c r="D55" s="4">
         <v>816</v>
@@ -3099,54 +3111,54 @@
       <c r="L55" s="4">
         <v>44</v>
       </c>
-      <c r="M55" s="5">
-        <v>3.2109999999999999</v>
+      <c r="M55" s="6">
+        <v>3211</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>3.827</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3.5510000000000002</v>
-      </c>
-      <c r="E56" s="5">
-        <v>21.558</v>
-      </c>
-      <c r="F56" s="5">
-        <v>8.1820000000000004</v>
-      </c>
-      <c r="G56" s="5">
-        <v>9.0419999999999998</v>
-      </c>
-      <c r="H56" s="5">
-        <v>16.896000000000001</v>
-      </c>
-      <c r="I56" s="5">
-        <v>9.859</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="6">
+        <v>3827</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3551</v>
+      </c>
+      <c r="E56" s="6">
+        <v>21558</v>
+      </c>
+      <c r="F56" s="6">
+        <v>8182</v>
+      </c>
+      <c r="G56" s="6">
+        <v>9042</v>
+      </c>
+      <c r="H56" s="6">
+        <v>16896</v>
+      </c>
+      <c r="I56" s="6">
+        <v>9859</v>
+      </c>
+      <c r="J56" s="7">
         <v>700</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>63</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>715</v>
       </c>
-      <c r="M56" s="5">
-        <v>74.393000000000001</v>
+      <c r="M56" s="6">
+        <v>74393</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3203,8 +3215,8 @@
       <c r="G58" s="4">
         <v>351</v>
       </c>
-      <c r="H58" s="4">
-        <v>1.3460000000000001</v>
+      <c r="H58" s="5">
+        <v>1346</v>
       </c>
       <c r="I58" s="4">
         <v>304</v>
@@ -3218,8 +3230,8 @@
       <c r="L58" s="4">
         <v>57</v>
       </c>
-      <c r="M58" s="5">
-        <v>2.0840000000000001</v>
+      <c r="M58" s="6">
+        <v>2084</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3242,8 +3254,8 @@
       <c r="G59" s="4">
         <v>257</v>
       </c>
-      <c r="H59" s="4">
-        <v>1.214</v>
+      <c r="H59" s="5">
+        <v>1214</v>
       </c>
       <c r="I59" s="4">
         <v>436</v>
@@ -3257,8 +3269,8 @@
       <c r="L59" s="4">
         <v>43</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.9810000000000001</v>
+      <c r="M59" s="6">
+        <v>1981</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3298,8 +3310,8 @@
       <c r="L60" s="4">
         <v>16</v>
       </c>
-      <c r="M60" s="5">
-        <v>1.5069999999999999</v>
+      <c r="M60" s="6">
+        <v>1507</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3337,8 +3349,8 @@
       <c r="L61" s="4">
         <v>9</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.371</v>
+      <c r="M61" s="6">
+        <v>1371</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3378,8 +3390,8 @@
       <c r="L62" s="4">
         <v>14</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.403</v>
+      <c r="M62" s="6">
+        <v>1403</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3417,8 +3429,8 @@
       <c r="L63" s="4">
         <v>16</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.3360000000000001</v>
+      <c r="M63" s="6">
+        <v>1336</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3458,8 +3470,8 @@
       <c r="L64" s="4">
         <v>25</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.835</v>
+      <c r="M64" s="6">
+        <v>1835</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3497,8 +3509,8 @@
       <c r="L65" s="4">
         <v>14</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.609</v>
+      <c r="M65" s="6">
+        <v>1609</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3538,8 +3550,8 @@
       <c r="L66" s="4">
         <v>25</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.8620000000000001</v>
+      <c r="M66" s="6">
+        <v>1862</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3577,8 +3589,8 @@
       <c r="L67" s="4">
         <v>14</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.742</v>
+      <c r="M67" s="6">
+        <v>1742</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3618,8 +3630,8 @@
       <c r="L68" s="4">
         <v>49</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.7989999999999999</v>
+      <c r="M68" s="6">
+        <v>1799</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3657,8 +3669,8 @@
       <c r="L69" s="4">
         <v>50</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.7569999999999999</v>
+      <c r="M69" s="6">
+        <v>1757</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3698,8 +3710,8 @@
       <c r="L70" s="4">
         <v>93</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.8109999999999999</v>
+      <c r="M70" s="6">
+        <v>1811</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3737,8 +3749,8 @@
       <c r="L71" s="4">
         <v>98</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.893</v>
+      <c r="M71" s="6">
+        <v>1893</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3778,8 +3790,8 @@
       <c r="L72" s="4">
         <v>117</v>
       </c>
-      <c r="M72" s="5">
-        <v>2.169</v>
+      <c r="M72" s="6">
+        <v>2169</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3793,8 +3805,8 @@
       <c r="D73" s="4">
         <v>82</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.597</v>
+      <c r="E73" s="5">
+        <v>1597</v>
       </c>
       <c r="F73" s="4">
         <v>190</v>
@@ -3817,8 +3829,8 @@
       <c r="L73" s="4">
         <v>119</v>
       </c>
-      <c r="M73" s="5">
-        <v>2.4849999999999999</v>
+      <c r="M73" s="6">
+        <v>2485</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3834,8 +3846,8 @@
       <c r="D74" s="4">
         <v>18</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.387</v>
+      <c r="E74" s="5">
+        <v>1387</v>
       </c>
       <c r="F74" s="4">
         <v>256</v>
@@ -3858,8 +3870,8 @@
       <c r="L74" s="4">
         <v>94</v>
       </c>
-      <c r="M74" s="5">
-        <v>2.4900000000000002</v>
+      <c r="M74" s="6">
+        <v>2490</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3873,8 +3885,8 @@
       <c r="D75" s="4">
         <v>251</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.698</v>
+      <c r="E75" s="5">
+        <v>1698</v>
       </c>
       <c r="F75" s="4">
         <v>78</v>
@@ -3897,8 +3909,8 @@
       <c r="L75" s="4">
         <v>95</v>
       </c>
-      <c r="M75" s="5">
-        <v>2.6589999999999998</v>
+      <c r="M75" s="6">
+        <v>2659</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3914,8 +3926,8 @@
       <c r="D76" s="4">
         <v>43</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.38</v>
+      <c r="E76" s="5">
+        <v>1380</v>
       </c>
       <c r="F76" s="4">
         <v>61</v>
@@ -3938,8 +3950,8 @@
       <c r="L76" s="4">
         <v>71</v>
       </c>
-      <c r="M76" s="5">
-        <v>2.0350000000000001</v>
+      <c r="M76" s="6">
+        <v>2035</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3953,8 +3965,8 @@
       <c r="D77" s="4">
         <v>445</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.22</v>
+      <c r="E77" s="5">
+        <v>1220</v>
       </c>
       <c r="F77" s="4">
         <v>24</v>
@@ -3977,8 +3989,8 @@
       <c r="L77" s="4">
         <v>76</v>
       </c>
-      <c r="M77" s="5">
-        <v>2.3849999999999998</v>
+      <c r="M77" s="6">
+        <v>2385</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3994,8 +4006,8 @@
       <c r="D78" s="4">
         <v>106</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.153</v>
+      <c r="E78" s="5">
+        <v>1153</v>
       </c>
       <c r="F78" s="4">
         <v>25</v>
@@ -4018,8 +4030,8 @@
       <c r="L78" s="4">
         <v>34</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.64</v>
+      <c r="M78" s="6">
+        <v>1640</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4057,8 +4069,8 @@
       <c r="L79" s="4">
         <v>73</v>
       </c>
-      <c r="M79" s="5">
-        <v>1.8640000000000001</v>
+      <c r="M79" s="6">
+        <v>1864</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4074,8 +4086,8 @@
       <c r="D80" s="4">
         <v>298</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.171</v>
+      <c r="E80" s="5">
+        <v>1171</v>
       </c>
       <c r="F80" s="4">
         <v>9</v>
@@ -4098,8 +4110,8 @@
       <c r="L80" s="4">
         <v>101</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.8560000000000001</v>
+      <c r="M80" s="6">
+        <v>1856</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4107,8 +4119,8 @@
       <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="4">
-        <v>1.2969999999999999</v>
+      <c r="C81" s="5">
+        <v>1297</v>
       </c>
       <c r="D81" s="4">
         <v>521</v>
@@ -4137,54 +4149,54 @@
       <c r="L81" s="4">
         <v>107</v>
       </c>
-      <c r="M81" s="5">
-        <v>2.5289999999999999</v>
+      <c r="M81" s="6">
+        <v>2529</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>3.1429999999999998</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2.4039999999999999</v>
-      </c>
-      <c r="E82" s="5">
-        <v>14.712</v>
-      </c>
-      <c r="F82" s="5">
-        <v>3.9710000000000001</v>
-      </c>
-      <c r="G82" s="5">
-        <v>4.9130000000000003</v>
-      </c>
-      <c r="H82" s="5">
-        <v>9.4169999999999998</v>
-      </c>
-      <c r="I82" s="5">
-        <v>5.6559999999999997</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6">
+        <v>3143</v>
+      </c>
+      <c r="D82" s="6">
+        <v>2404</v>
+      </c>
+      <c r="E82" s="6">
+        <v>14712</v>
+      </c>
+      <c r="F82" s="6">
+        <v>3971</v>
+      </c>
+      <c r="G82" s="6">
+        <v>4913</v>
+      </c>
+      <c r="H82" s="6">
+        <v>9417</v>
+      </c>
+      <c r="I82" s="6">
+        <v>5656</v>
+      </c>
+      <c r="J82" s="7">
         <v>424</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="7">
         <v>52</v>
       </c>
-      <c r="L82" s="5">
-        <v>1.41</v>
-      </c>
-      <c r="M82" s="5">
-        <v>46.101999999999997</v>
+      <c r="L82" s="6">
+        <v>1410</v>
+      </c>
+      <c r="M82" s="6">
+        <v>46102</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4238,14 +4250,14 @@
       <c r="F84" s="4">
         <v>2</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.375</v>
-      </c>
-      <c r="H84" s="4">
-        <v>6.2009999999999996</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1.1719999999999999</v>
+      <c r="G84" s="5">
+        <v>1375</v>
+      </c>
+      <c r="H84" s="5">
+        <v>6201</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1172</v>
       </c>
       <c r="J84" s="4">
         <v>6</v>
@@ -4256,8 +4268,8 @@
       <c r="L84" s="4">
         <v>52</v>
       </c>
-      <c r="M84" s="5">
-        <v>8.8260000000000005</v>
+      <c r="M84" s="6">
+        <v>8826</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4277,14 +4289,14 @@
       <c r="F85" s="4">
         <v>1</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="H85" s="4">
-        <v>5.3639999999999999</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1.7430000000000001</v>
+      <c r="G85" s="5">
+        <v>1207</v>
+      </c>
+      <c r="H85" s="5">
+        <v>5364</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1743</v>
       </c>
       <c r="J85" s="4">
         <v>7</v>
@@ -4295,8 +4307,8 @@
       <c r="L85" s="4">
         <v>11</v>
       </c>
-      <c r="M85" s="5">
-        <v>8.3659999999999997</v>
+      <c r="M85" s="6">
+        <v>8366</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4321,11 +4333,11 @@
       <c r="G86" s="4">
         <v>802</v>
       </c>
-      <c r="H86" s="4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="I86" s="4">
-        <v>2.2349999999999999</v>
+      <c r="H86" s="5">
+        <v>2280</v>
+      </c>
+      <c r="I86" s="5">
+        <v>2235</v>
       </c>
       <c r="J86" s="4">
         <v>115</v>
@@ -4336,8 +4348,8 @@
       <c r="L86" s="4">
         <v>17</v>
       </c>
-      <c r="M86" s="5">
-        <v>5.4870000000000001</v>
+      <c r="M86" s="6">
+        <v>5487</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4357,14 +4369,14 @@
       <c r="F87" s="4">
         <v>16</v>
       </c>
-      <c r="G87" s="4">
-        <v>1.133</v>
-      </c>
-      <c r="H87" s="4">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="I87" s="4">
-        <v>2.33</v>
+      <c r="G87" s="5">
+        <v>1133</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1277</v>
+      </c>
+      <c r="I87" s="5">
+        <v>2330</v>
       </c>
       <c r="J87" s="4">
         <v>149</v>
@@ -4375,8 +4387,8 @@
       <c r="L87" s="4">
         <v>17</v>
       </c>
-      <c r="M87" s="5">
-        <v>4.9870000000000001</v>
+      <c r="M87" s="6">
+        <v>4987</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4401,11 +4413,11 @@
       <c r="G88" s="4">
         <v>458</v>
       </c>
-      <c r="H88" s="4">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I88" s="4">
-        <v>1.702</v>
+      <c r="H88" s="5">
+        <v>2450</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1702</v>
       </c>
       <c r="J88" s="4">
         <v>202</v>
@@ -4416,8 +4428,8 @@
       <c r="L88" s="4">
         <v>17</v>
       </c>
-      <c r="M88" s="5">
-        <v>5.4610000000000003</v>
+      <c r="M88" s="6">
+        <v>5461</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4434,17 +4446,17 @@
       <c r="E89" s="4">
         <v>40</v>
       </c>
-      <c r="F89" s="4">
-        <v>1.0609999999999999</v>
+      <c r="F89" s="5">
+        <v>1061</v>
       </c>
       <c r="G89" s="4">
         <v>439</v>
       </c>
-      <c r="H89" s="4">
-        <v>1.577</v>
-      </c>
-      <c r="I89" s="4">
-        <v>1.8560000000000001</v>
+      <c r="H89" s="5">
+        <v>1577</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1856</v>
       </c>
       <c r="J89" s="4">
         <v>253</v>
@@ -4455,8 +4467,8 @@
       <c r="L89" s="4">
         <v>14</v>
       </c>
-      <c r="M89" s="5">
-        <v>5.3259999999999996</v>
+      <c r="M89" s="6">
+        <v>5326</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4481,11 +4493,11 @@
       <c r="G90" s="4">
         <v>415</v>
       </c>
-      <c r="H90" s="4">
-        <v>2.9510000000000001</v>
-      </c>
-      <c r="I90" s="4">
-        <v>1.502</v>
+      <c r="H90" s="5">
+        <v>2951</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1502</v>
       </c>
       <c r="J90" s="4">
         <v>214</v>
@@ -4496,8 +4508,8 @@
       <c r="L90" s="4">
         <v>15</v>
       </c>
-      <c r="M90" s="5">
-        <v>6.2990000000000004</v>
+      <c r="M90" s="6">
+        <v>6299</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4511,20 +4523,20 @@
       <c r="D91" s="4">
         <v>40</v>
       </c>
-      <c r="E91" s="4">
-        <v>1.274</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.08</v>
+      <c r="E91" s="5">
+        <v>1274</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1080</v>
       </c>
       <c r="G91" s="4">
         <v>571</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="I91" s="4">
-        <v>1.4790000000000001</v>
+      <c r="H91" s="5">
+        <v>1916</v>
+      </c>
+      <c r="I91" s="5">
+        <v>1479</v>
       </c>
       <c r="J91" s="4">
         <v>237</v>
@@ -4535,8 +4547,8 @@
       <c r="L91" s="4">
         <v>19</v>
       </c>
-      <c r="M91" s="5">
-        <v>6.6660000000000004</v>
+      <c r="M91" s="6">
+        <v>6666</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4555,17 +4567,17 @@
       <c r="E92" s="4">
         <v>224</v>
       </c>
-      <c r="F92" s="4">
-        <v>1.381</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="H92" s="4">
-        <v>3.2090000000000001</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1.367</v>
+      <c r="F92" s="5">
+        <v>1381</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1061</v>
+      </c>
+      <c r="H92" s="5">
+        <v>3209</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1367</v>
       </c>
       <c r="J92" s="4">
         <v>227</v>
@@ -4576,8 +4588,8 @@
       <c r="L92" s="4">
         <v>20</v>
       </c>
-      <c r="M92" s="5">
-        <v>7.5350000000000001</v>
+      <c r="M92" s="6">
+        <v>7535</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4591,8 +4603,8 @@
       <c r="D93" s="4">
         <v>30</v>
       </c>
-      <c r="E93" s="4">
-        <v>2.2829999999999999</v>
+      <c r="E93" s="5">
+        <v>2283</v>
       </c>
       <c r="F93" s="4">
         <v>805</v>
@@ -4600,11 +4612,11 @@
       <c r="G93" s="4">
         <v>958</v>
       </c>
-      <c r="H93" s="4">
-        <v>1.9179999999999999</v>
-      </c>
-      <c r="I93" s="4">
-        <v>1.3129999999999999</v>
+      <c r="H93" s="5">
+        <v>1918</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1313</v>
       </c>
       <c r="J93" s="4">
         <v>220</v>
@@ -4615,8 +4627,8 @@
       <c r="L93" s="4">
         <v>14</v>
       </c>
-      <c r="M93" s="5">
-        <v>7.6059999999999999</v>
+      <c r="M93" s="6">
+        <v>7606</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4635,17 +4647,17 @@
       <c r="E94" s="4">
         <v>438</v>
       </c>
-      <c r="F94" s="4">
-        <v>1.496</v>
+      <c r="F94" s="5">
+        <v>1496</v>
       </c>
       <c r="G94" s="4">
         <v>946</v>
       </c>
-      <c r="H94" s="4">
-        <v>2.8759999999999999</v>
-      </c>
-      <c r="I94" s="4">
-        <v>1.18</v>
+      <c r="H94" s="5">
+        <v>2876</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1180</v>
       </c>
       <c r="J94" s="4">
         <v>206</v>
@@ -4656,8 +4668,8 @@
       <c r="L94" s="4">
         <v>24</v>
       </c>
-      <c r="M94" s="5">
-        <v>7.2169999999999996</v>
+      <c r="M94" s="6">
+        <v>7217</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4671,8 +4683,8 @@
       <c r="D95" s="4">
         <v>35</v>
       </c>
-      <c r="E95" s="4">
-        <v>2.8029999999999999</v>
+      <c r="E95" s="5">
+        <v>2803</v>
       </c>
       <c r="F95" s="4">
         <v>818</v>
@@ -4680,8 +4692,8 @@
       <c r="G95" s="4">
         <v>895</v>
       </c>
-      <c r="H95" s="4">
-        <v>1.51</v>
+      <c r="H95" s="5">
+        <v>1510</v>
       </c>
       <c r="I95" s="4">
         <v>914</v>
@@ -4695,8 +4707,8 @@
       <c r="L95" s="4">
         <v>27</v>
       </c>
-      <c r="M95" s="5">
-        <v>7.1710000000000003</v>
+      <c r="M95" s="6">
+        <v>7171</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4715,14 +4727,14 @@
       <c r="E96" s="4">
         <v>762</v>
       </c>
-      <c r="F96" s="4">
-        <v>1.393</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="H96" s="4">
-        <v>1.738</v>
+      <c r="F96" s="5">
+        <v>1393</v>
+      </c>
+      <c r="G96" s="5">
+        <v>1082</v>
+      </c>
+      <c r="H96" s="5">
+        <v>1738</v>
       </c>
       <c r="I96" s="4">
         <v>933</v>
@@ -4736,8 +4748,8 @@
       <c r="L96" s="4">
         <v>33</v>
       </c>
-      <c r="M96" s="5">
-        <v>6.0910000000000002</v>
+      <c r="M96" s="6">
+        <v>6091</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,8 +4763,8 @@
       <c r="D97" s="4">
         <v>142</v>
       </c>
-      <c r="E97" s="4">
-        <v>2.9329999999999998</v>
+      <c r="E97" s="5">
+        <v>2933</v>
       </c>
       <c r="F97" s="4">
         <v>634</v>
@@ -4775,8 +4787,8 @@
       <c r="L97" s="4">
         <v>47</v>
       </c>
-      <c r="M97" s="5">
-        <v>6.085</v>
+      <c r="M97" s="6">
+        <v>6085</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4792,8 +4804,8 @@
       <c r="D98" s="4">
         <v>19</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.405</v>
+      <c r="E98" s="5">
+        <v>1405</v>
       </c>
       <c r="F98" s="4">
         <v>927</v>
@@ -4801,8 +4813,8 @@
       <c r="G98" s="4">
         <v>894</v>
       </c>
-      <c r="H98" s="4">
-        <v>1.2410000000000001</v>
+      <c r="H98" s="5">
+        <v>1241</v>
       </c>
       <c r="I98" s="4">
         <v>583</v>
@@ -4816,8 +4828,8 @@
       <c r="L98" s="4">
         <v>59</v>
       </c>
-      <c r="M98" s="5">
-        <v>5.2409999999999997</v>
+      <c r="M98" s="6">
+        <v>5241</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4831,8 +4843,8 @@
       <c r="D99" s="4">
         <v>317</v>
       </c>
-      <c r="E99" s="4">
-        <v>3.1970000000000001</v>
+      <c r="E99" s="5">
+        <v>3197</v>
       </c>
       <c r="F99" s="4">
         <v>347</v>
@@ -4855,8 +4867,8 @@
       <c r="L99" s="4">
         <v>56</v>
       </c>
-      <c r="M99" s="5">
-        <v>5.7149999999999999</v>
+      <c r="M99" s="6">
+        <v>5715</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4872,8 +4884,8 @@
       <c r="D100" s="4">
         <v>32</v>
       </c>
-      <c r="E100" s="4">
-        <v>2.1179999999999999</v>
+      <c r="E100" s="5">
+        <v>2118</v>
       </c>
       <c r="F100" s="4">
         <v>401</v>
@@ -4881,8 +4893,8 @@
       <c r="G100" s="4">
         <v>540</v>
       </c>
-      <c r="H100" s="4">
-        <v>1.1759999999999999</v>
+      <c r="H100" s="5">
+        <v>1176</v>
       </c>
       <c r="I100" s="4">
         <v>350</v>
@@ -4896,8 +4908,8 @@
       <c r="L100" s="4">
         <v>52</v>
       </c>
-      <c r="M100" s="5">
-        <v>4.7359999999999998</v>
+      <c r="M100" s="6">
+        <v>4736</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4911,8 +4923,8 @@
       <c r="D101" s="4">
         <v>575</v>
       </c>
-      <c r="E101" s="4">
-        <v>2.778</v>
+      <c r="E101" s="5">
+        <v>2778</v>
       </c>
       <c r="F101" s="4">
         <v>149</v>
@@ -4935,8 +4947,8 @@
       <c r="L101" s="4">
         <v>45</v>
       </c>
-      <c r="M101" s="5">
-        <v>5.3150000000000004</v>
+      <c r="M101" s="6">
+        <v>5315</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4952,8 +4964,8 @@
       <c r="D102" s="4">
         <v>50</v>
       </c>
-      <c r="E102" s="4">
-        <v>2.2050000000000001</v>
+      <c r="E102" s="5">
+        <v>2205</v>
       </c>
       <c r="F102" s="4">
         <v>131</v>
@@ -4976,8 +4988,8 @@
       <c r="L102" s="4">
         <v>42</v>
       </c>
-      <c r="M102" s="5">
-        <v>3.8410000000000002</v>
+      <c r="M102" s="6">
+        <v>3841</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4985,14 +4997,14 @@
       <c r="B103" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="4">
-        <v>1.0820000000000001</v>
+      <c r="C103" s="5">
+        <v>1082</v>
       </c>
       <c r="D103" s="4">
         <v>707</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.8740000000000001</v>
+      <c r="E103" s="5">
+        <v>1874</v>
       </c>
       <c r="F103" s="4">
         <v>50</v>
@@ -5015,8 +5027,8 @@
       <c r="L103" s="4">
         <v>44</v>
       </c>
-      <c r="M103" s="5">
-        <v>4.3810000000000002</v>
+      <c r="M103" s="6">
+        <v>4381</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5032,8 +5044,8 @@
       <c r="D104" s="4">
         <v>84</v>
       </c>
-      <c r="E104" s="4">
-        <v>1.7549999999999999</v>
+      <c r="E104" s="5">
+        <v>1755</v>
       </c>
       <c r="F104" s="4">
         <v>37</v>
@@ -5056,8 +5068,8 @@
       <c r="L104" s="4">
         <v>14</v>
       </c>
-      <c r="M104" s="5">
-        <v>2.7269999999999999</v>
+      <c r="M104" s="6">
+        <v>2727</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5065,14 +5077,14 @@
       <c r="B105" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="4">
-        <v>1.0349999999999999</v>
+      <c r="C105" s="5">
+        <v>1035</v>
       </c>
       <c r="D105" s="4">
         <v>548</v>
       </c>
-      <c r="E105" s="4">
-        <v>1.0489999999999999</v>
+      <c r="E105" s="5">
+        <v>1049</v>
       </c>
       <c r="F105" s="4">
         <v>13</v>
@@ -5095,8 +5107,8 @@
       <c r="L105" s="4">
         <v>42</v>
       </c>
-      <c r="M105" s="5">
-        <v>3.0209999999999999</v>
+      <c r="M105" s="6">
+        <v>3021</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5112,8 +5124,8 @@
       <c r="D106" s="4">
         <v>236</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.623</v>
+      <c r="E106" s="5">
+        <v>1623</v>
       </c>
       <c r="F106" s="4">
         <v>17</v>
@@ -5136,8 +5148,8 @@
       <c r="L106" s="4">
         <v>59</v>
       </c>
-      <c r="M106" s="5">
-        <v>2.64</v>
+      <c r="M106" s="6">
+        <v>2640</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5145,14 +5157,14 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="4">
-        <v>1.8540000000000001</v>
+      <c r="C107" s="5">
+        <v>1854</v>
       </c>
       <c r="D107" s="4">
         <v>626</v>
       </c>
-      <c r="E107" s="4">
-        <v>1.159</v>
+      <c r="E107" s="5">
+        <v>1159</v>
       </c>
       <c r="F107" s="4">
         <v>3</v>
@@ -5175,54 +5187,54 @@
       <c r="L107" s="4">
         <v>60</v>
       </c>
-      <c r="M107" s="5">
-        <v>3.9860000000000002</v>
+      <c r="M107" s="6">
+        <v>3986</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>5.7590000000000003</v>
-      </c>
-      <c r="D108" s="5">
-        <v>3.609</v>
-      </c>
-      <c r="E108" s="5">
-        <v>30.158000000000001</v>
-      </c>
-      <c r="F108" s="5">
-        <v>12.358000000000001</v>
-      </c>
-      <c r="G108" s="5">
-        <v>15.157</v>
-      </c>
-      <c r="H108" s="5">
-        <v>41.722000000000001</v>
-      </c>
-      <c r="I108" s="5">
-        <v>22.637</v>
-      </c>
-      <c r="J108" s="5">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="6">
+        <v>5759</v>
+      </c>
+      <c r="D108" s="6">
+        <v>3609</v>
+      </c>
+      <c r="E108" s="6">
+        <v>30158</v>
+      </c>
+      <c r="F108" s="6">
+        <v>12358</v>
+      </c>
+      <c r="G108" s="6">
+        <v>15157</v>
+      </c>
+      <c r="H108" s="6">
+        <v>41722</v>
+      </c>
+      <c r="I108" s="6">
+        <v>22637</v>
+      </c>
+      <c r="J108" s="6">
+        <v>2277</v>
+      </c>
+      <c r="K108" s="7">
         <v>249</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>800</v>
       </c>
-      <c r="M108" s="5">
-        <v>134.726</v>
+      <c r="M108" s="6">
+        <v>134726</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5294,7 +5306,7 @@
       <c r="L110" s="4">
         <v>10</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="7">
         <v>971</v>
       </c>
     </row>
@@ -5333,7 +5345,7 @@
       <c r="L111" s="4">
         <v>2</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="7">
         <v>937</v>
       </c>
     </row>
@@ -5374,7 +5386,7 @@
       <c r="L112" s="4">
         <v>3</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="7">
         <v>696</v>
       </c>
     </row>
@@ -5413,7 +5425,7 @@
       <c r="L113" s="4">
         <v>1</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="7">
         <v>610</v>
       </c>
     </row>
@@ -5454,7 +5466,7 @@
       <c r="L114" s="4">
         <v>2</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="7">
         <v>696</v>
       </c>
     </row>
@@ -5493,7 +5505,7 @@
       <c r="L115" s="4">
         <v>1</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="7">
         <v>542</v>
       </c>
     </row>
@@ -5534,7 +5546,7 @@
       <c r="L116" s="4">
         <v>3</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="7">
         <v>699</v>
       </c>
     </row>
@@ -5573,7 +5585,7 @@
       <c r="L117" s="4">
         <v>3</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="7">
         <v>645</v>
       </c>
     </row>
@@ -5614,7 +5626,7 @@
       <c r="L118" s="4">
         <v>5</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="7">
         <v>801</v>
       </c>
     </row>
@@ -5653,7 +5665,7 @@
       <c r="L119" s="4">
         <v>3</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="7">
         <v>747</v>
       </c>
     </row>
@@ -5694,7 +5706,7 @@
       <c r="L120" s="4">
         <v>8</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="7">
         <v>732</v>
       </c>
     </row>
@@ -5733,7 +5745,7 @@
       <c r="L121" s="4">
         <v>3</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="7">
         <v>705</v>
       </c>
     </row>
@@ -5774,7 +5786,7 @@
       <c r="L122" s="4">
         <v>6</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="7">
         <v>737</v>
       </c>
     </row>
@@ -5813,7 +5825,7 @@
       <c r="L123" s="4">
         <v>14</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="7">
         <v>809</v>
       </c>
     </row>
@@ -5854,7 +5866,7 @@
       <c r="L124" s="4">
         <v>19</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="7">
         <v>799</v>
       </c>
     </row>
@@ -5893,7 +5905,7 @@
       <c r="L125" s="4">
         <v>16</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="7">
         <v>871</v>
       </c>
     </row>
@@ -5934,7 +5946,7 @@
       <c r="L126" s="4">
         <v>4</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="7">
         <v>728</v>
       </c>
     </row>
@@ -5973,7 +5985,7 @@
       <c r="L127" s="4">
         <v>12</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="7">
         <v>822</v>
       </c>
     </row>
@@ -6014,7 +6026,7 @@
       <c r="L128" s="4">
         <v>15</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="7">
         <v>650</v>
       </c>
     </row>
@@ -6053,7 +6065,7 @@
       <c r="L129" s="4">
         <v>13</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="7">
         <v>756</v>
       </c>
     </row>
@@ -6094,7 +6106,7 @@
       <c r="L130" s="4">
         <v>5</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>509</v>
       </c>
     </row>
@@ -6133,7 +6145,7 @@
       <c r="L131" s="4">
         <v>7</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="7">
         <v>562</v>
       </c>
     </row>
@@ -6174,7 +6186,7 @@
       <c r="L132" s="4">
         <v>11</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>470</v>
       </c>
     </row>
@@ -6213,7 +6225,7 @@
       <c r="L133" s="4">
         <v>9</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="7">
         <v>699</v>
       </c>
     </row>
@@ -6221,46 +6233,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.492</v>
-      </c>
-      <c r="D134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6">
+        <v>1492</v>
+      </c>
+      <c r="D134" s="7">
         <v>782</v>
       </c>
-      <c r="E134" s="5">
-        <v>4.6609999999999996</v>
-      </c>
-      <c r="F134" s="5">
-        <v>2.044</v>
-      </c>
-      <c r="G134" s="5">
-        <v>2.403</v>
-      </c>
-      <c r="H134" s="5">
-        <v>3.702</v>
-      </c>
-      <c r="I134" s="5">
-        <v>1.794</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="E134" s="6">
+        <v>4661</v>
+      </c>
+      <c r="F134" s="6">
+        <v>2044</v>
+      </c>
+      <c r="G134" s="6">
+        <v>2403</v>
+      </c>
+      <c r="H134" s="6">
+        <v>3702</v>
+      </c>
+      <c r="I134" s="6">
+        <v>1794</v>
+      </c>
+      <c r="J134" s="7">
         <v>125</v>
       </c>
-      <c r="K134" s="5">
-        <v>15</v>
-      </c>
-      <c r="L134" s="5">
+      <c r="K134" s="7">
+        <v>15</v>
+      </c>
+      <c r="L134" s="7">
         <v>175</v>
       </c>
-      <c r="M134" s="5">
-        <v>17.193000000000001</v>
+      <c r="M134" s="6">
+        <v>17193</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6332,8 +6344,8 @@
       <c r="L136" s="4">
         <v>12</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.4670000000000001</v>
+      <c r="M136" s="6">
+        <v>1467</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6371,8 +6383,8 @@
       <c r="L137" s="4">
         <v>2</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.35</v>
+      <c r="M137" s="6">
+        <v>1350</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6412,7 +6424,7 @@
       <c r="L138" s="4">
         <v>3</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="7">
         <v>938</v>
       </c>
     </row>
@@ -6451,7 +6463,7 @@
       <c r="L139" s="4">
         <v>4</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="7">
         <v>758</v>
       </c>
     </row>
@@ -6492,7 +6504,7 @@
       <c r="L140" s="4">
         <v>5</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="7">
         <v>968</v>
       </c>
     </row>
@@ -6531,7 +6543,7 @@
       <c r="L141" s="4">
         <v>6</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="7">
         <v>979</v>
       </c>
     </row>
@@ -6572,8 +6584,8 @@
       <c r="L142" s="4">
         <v>3</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.3240000000000001</v>
+      <c r="M142" s="6">
+        <v>1324</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6611,8 +6623,8 @@
       <c r="L143" s="4">
         <v>1</v>
       </c>
-      <c r="M143" s="5">
-        <v>1.2430000000000001</v>
+      <c r="M143" s="6">
+        <v>1243</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6652,8 +6664,8 @@
       <c r="L144" s="4">
         <v>6</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.573</v>
+      <c r="M144" s="6">
+        <v>1573</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6691,8 +6703,8 @@
       <c r="L145" s="4">
         <v>6</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.2989999999999999</v>
+      <c r="M145" s="6">
+        <v>1299</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6732,8 +6744,8 @@
       <c r="L146" s="4">
         <v>4</v>
       </c>
-      <c r="M146" s="5">
-        <v>1.252</v>
+      <c r="M146" s="6">
+        <v>1252</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6771,8 +6783,8 @@
       <c r="L147" s="4">
         <v>8</v>
       </c>
-      <c r="M147" s="5">
-        <v>1.22</v>
+      <c r="M147" s="6">
+        <v>1220</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6812,8 +6824,8 @@
       <c r="L148" s="4">
         <v>11</v>
       </c>
-      <c r="M148" s="5">
-        <v>1.0760000000000001</v>
+      <c r="M148" s="6">
+        <v>1076</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6851,8 +6863,8 @@
       <c r="L149" s="4">
         <v>10</v>
       </c>
-      <c r="M149" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M149" s="6">
+        <v>1068</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6892,8 +6904,8 @@
       <c r="L150" s="4">
         <v>7</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.097</v>
+      <c r="M150" s="6">
+        <v>1097</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6931,8 +6943,8 @@
       <c r="L151" s="4">
         <v>11</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.1719999999999999</v>
+      <c r="M151" s="6">
+        <v>1172</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6972,8 +6984,8 @@
       <c r="L152" s="4">
         <v>14</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.198</v>
+      <c r="M152" s="6">
+        <v>1198</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7011,8 +7023,8 @@
       <c r="L153" s="4">
         <v>12</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.296</v>
+      <c r="M153" s="6">
+        <v>1296</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7052,7 +7064,7 @@
       <c r="L154" s="4">
         <v>7</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>987</v>
       </c>
     </row>
@@ -7091,8 +7103,8 @@
       <c r="L155" s="4">
         <v>11</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.048</v>
+      <c r="M155" s="6">
+        <v>1048</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7132,7 +7144,7 @@
       <c r="L156" s="4">
         <v>5</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>612</v>
       </c>
     </row>
@@ -7171,7 +7183,7 @@
       <c r="L157" s="4">
         <v>12</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>716</v>
       </c>
     </row>
@@ -7212,7 +7224,7 @@
       <c r="L158" s="4">
         <v>14</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>543</v>
       </c>
     </row>
@@ -7251,54 +7263,54 @@
       <c r="L159" s="4">
         <v>7</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.0269999999999999</v>
+      <c r="M159" s="6">
+        <v>1027</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="7">
         <v>904</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="7">
         <v>676</v>
       </c>
-      <c r="E160" s="5">
-        <v>6.6970000000000001</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.641</v>
-      </c>
-      <c r="G160" s="5">
-        <v>3.8380000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>7.7050000000000001</v>
-      </c>
-      <c r="I160" s="5">
-        <v>3.3450000000000002</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="E160" s="6">
+        <v>6697</v>
+      </c>
+      <c r="F160" s="6">
+        <v>2641</v>
+      </c>
+      <c r="G160" s="6">
+        <v>3838</v>
+      </c>
+      <c r="H160" s="6">
+        <v>7705</v>
+      </c>
+      <c r="I160" s="6">
+        <v>3345</v>
+      </c>
+      <c r="J160" s="7">
         <v>196</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>28</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>181</v>
       </c>
-      <c r="M160" s="5">
-        <v>26.210999999999999</v>
+      <c r="M160" s="6">
+        <v>26211</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7355,8 +7367,8 @@
       <c r="G162" s="4">
         <v>264</v>
       </c>
-      <c r="H162" s="4">
-        <v>1.5</v>
+      <c r="H162" s="5">
+        <v>1500</v>
       </c>
       <c r="I162" s="4">
         <v>326</v>
@@ -7370,8 +7382,8 @@
       <c r="L162" s="4">
         <v>10</v>
       </c>
-      <c r="M162" s="5">
-        <v>2.11</v>
+      <c r="M162" s="6">
+        <v>2110</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7394,8 +7406,8 @@
       <c r="G163" s="4">
         <v>197</v>
       </c>
-      <c r="H163" s="4">
-        <v>1.3819999999999999</v>
+      <c r="H163" s="5">
+        <v>1382</v>
       </c>
       <c r="I163" s="4">
         <v>436</v>
@@ -7409,8 +7421,8 @@
       <c r="L163" s="4">
         <v>6</v>
       </c>
-      <c r="M163" s="5">
-        <v>2.036</v>
+      <c r="M163" s="6">
+        <v>2036</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7450,8 +7462,8 @@
       <c r="L164" s="4">
         <v>6</v>
       </c>
-      <c r="M164" s="5">
-        <v>1.494</v>
+      <c r="M164" s="6">
+        <v>1494</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7489,8 +7501,8 @@
       <c r="L165" s="4">
         <v>6</v>
       </c>
-      <c r="M165" s="5">
-        <v>1.427</v>
+      <c r="M165" s="6">
+        <v>1427</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7530,8 +7542,8 @@
       <c r="L166" s="4">
         <v>3</v>
       </c>
-      <c r="M166" s="5">
-        <v>1.6539999999999999</v>
+      <c r="M166" s="6">
+        <v>1654</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7569,8 +7581,8 @@
       <c r="L167" s="4">
         <v>5</v>
       </c>
-      <c r="M167" s="5">
-        <v>1.5669999999999999</v>
+      <c r="M167" s="6">
+        <v>1567</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7610,8 +7622,8 @@
       <c r="L168" s="4">
         <v>4</v>
       </c>
-      <c r="M168" s="5">
-        <v>1.885</v>
+      <c r="M168" s="6">
+        <v>1885</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7649,8 +7661,8 @@
       <c r="L169" s="4">
         <v>4</v>
       </c>
-      <c r="M169" s="5">
-        <v>1.8759999999999999</v>
+      <c r="M169" s="6">
+        <v>1876</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7690,8 +7702,8 @@
       <c r="L170" s="4">
         <v>4</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.8979999999999999</v>
+      <c r="M170" s="6">
+        <v>1898</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7729,8 +7741,8 @@
       <c r="L171" s="4">
         <v>6</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.7809999999999999</v>
+      <c r="M171" s="6">
+        <v>1781</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7770,8 +7782,8 @@
       <c r="L172" s="4">
         <v>8</v>
       </c>
-      <c r="M172" s="5">
-        <v>1.6379999999999999</v>
+      <c r="M172" s="6">
+        <v>1638</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7809,8 +7821,8 @@
       <c r="L173" s="4">
         <v>9</v>
       </c>
-      <c r="M173" s="5">
-        <v>1.647</v>
+      <c r="M173" s="6">
+        <v>1647</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7850,8 +7862,8 @@
       <c r="L174" s="4">
         <v>11</v>
       </c>
-      <c r="M174" s="5">
-        <v>1.5029999999999999</v>
+      <c r="M174" s="6">
+        <v>1503</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7889,8 +7901,8 @@
       <c r="L175" s="4">
         <v>18</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.58</v>
+      <c r="M175" s="6">
+        <v>1580</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7930,8 +7942,8 @@
       <c r="L176" s="4">
         <v>17</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.425</v>
+      <c r="M176" s="6">
+        <v>1425</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7969,8 +7981,8 @@
       <c r="L177" s="4">
         <v>20</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.593</v>
+      <c r="M177" s="6">
+        <v>1593</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8010,8 +8022,8 @@
       <c r="L178" s="4">
         <v>15</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.512</v>
+      <c r="M178" s="6">
+        <v>1512</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8049,8 +8061,8 @@
       <c r="L179" s="4">
         <v>11</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.631</v>
+      <c r="M179" s="6">
+        <v>1631</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8090,8 +8102,8 @@
       <c r="L180" s="4">
         <v>6</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.226</v>
+      <c r="M180" s="6">
+        <v>1226</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8129,8 +8141,8 @@
       <c r="L181" s="4">
         <v>9</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.339</v>
+      <c r="M181" s="6">
+        <v>1339</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8170,7 +8182,7 @@
       <c r="L182" s="4">
         <v>5</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="7">
         <v>816</v>
       </c>
     </row>
@@ -8209,7 +8221,7 @@
       <c r="L183" s="4">
         <v>15</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="7">
         <v>924</v>
       </c>
     </row>
@@ -8250,7 +8262,7 @@
       <c r="L184" s="4">
         <v>17</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="7">
         <v>723</v>
       </c>
     </row>
@@ -8289,54 +8301,54 @@
       <c r="L185" s="4">
         <v>12</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.1000000000000001</v>
+      <c r="M185" s="6">
+        <v>1100</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>1.3380000000000001</v>
-      </c>
-      <c r="D186" s="5">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="E186" s="5">
-        <v>7.5209999999999999</v>
-      </c>
-      <c r="F186" s="5">
-        <v>3.4039999999999999</v>
-      </c>
-      <c r="G186" s="5">
-        <v>4.0179999999999998</v>
-      </c>
-      <c r="H186" s="5">
-        <v>9.7050000000000001</v>
-      </c>
-      <c r="I186" s="5">
-        <v>7.5030000000000001</v>
-      </c>
-      <c r="J186" s="5">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="K186" s="5">
+      <c r="B186" s="8"/>
+      <c r="C186" s="6">
+        <v>1338</v>
+      </c>
+      <c r="D186" s="6">
+        <v>1051</v>
+      </c>
+      <c r="E186" s="6">
+        <v>7521</v>
+      </c>
+      <c r="F186" s="6">
+        <v>3404</v>
+      </c>
+      <c r="G186" s="6">
+        <v>4018</v>
+      </c>
+      <c r="H186" s="6">
+        <v>9705</v>
+      </c>
+      <c r="I186" s="6">
+        <v>7503</v>
+      </c>
+      <c r="J186" s="6">
+        <v>1263</v>
+      </c>
+      <c r="K186" s="7">
         <v>355</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="7">
         <v>227</v>
       </c>
-      <c r="M186" s="5">
-        <v>36.384999999999998</v>
+      <c r="M186" s="6">
+        <v>36385</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8393,8 +8405,8 @@
       <c r="G188" s="4">
         <v>778</v>
       </c>
-      <c r="H188" s="4">
-        <v>3.4510000000000001</v>
+      <c r="H188" s="5">
+        <v>3451</v>
       </c>
       <c r="I188" s="4">
         <v>776</v>
@@ -8408,8 +8420,8 @@
       <c r="L188" s="4">
         <v>31</v>
       </c>
-      <c r="M188" s="5">
-        <v>5.0720000000000001</v>
+      <c r="M188" s="6">
+        <v>5072</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8432,11 +8444,11 @@
       <c r="G189" s="4">
         <v>599</v>
       </c>
-      <c r="H189" s="4">
-        <v>3.06</v>
-      </c>
-      <c r="I189" s="4">
-        <v>1.1970000000000001</v>
+      <c r="H189" s="5">
+        <v>3060</v>
+      </c>
+      <c r="I189" s="5">
+        <v>1197</v>
       </c>
       <c r="J189" s="4">
         <v>13</v>
@@ -8447,8 +8459,8 @@
       <c r="L189" s="4">
         <v>5</v>
       </c>
-      <c r="M189" s="5">
-        <v>4.9080000000000004</v>
+      <c r="M189" s="6">
+        <v>4908</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8473,11 +8485,11 @@
       <c r="G190" s="4">
         <v>495</v>
       </c>
-      <c r="H190" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="I190" s="4">
-        <v>1.587</v>
+      <c r="H190" s="5">
+        <v>1300</v>
+      </c>
+      <c r="I190" s="5">
+        <v>1587</v>
       </c>
       <c r="J190" s="4">
         <v>100</v>
@@ -8488,8 +8500,8 @@
       <c r="L190" s="4">
         <v>20</v>
       </c>
-      <c r="M190" s="5">
-        <v>3.55</v>
+      <c r="M190" s="6">
+        <v>3550</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8515,8 +8527,8 @@
       <c r="H191" s="4">
         <v>705</v>
       </c>
-      <c r="I191" s="4">
-        <v>1.925</v>
+      <c r="I191" s="5">
+        <v>1925</v>
       </c>
       <c r="J191" s="4">
         <v>152</v>
@@ -8527,8 +8539,8 @@
       <c r="L191" s="4">
         <v>17</v>
       </c>
-      <c r="M191" s="5">
-        <v>3.2989999999999999</v>
+      <c r="M191" s="6">
+        <v>3299</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8553,11 +8565,11 @@
       <c r="G192" s="4">
         <v>276</v>
       </c>
-      <c r="H192" s="4">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="I192" s="4">
-        <v>1.4</v>
+      <c r="H192" s="5">
+        <v>1223</v>
+      </c>
+      <c r="I192" s="5">
+        <v>1400</v>
       </c>
       <c r="J192" s="4">
         <v>168</v>
@@ -8568,8 +8580,8 @@
       <c r="L192" s="4">
         <v>16</v>
       </c>
-      <c r="M192" s="5">
-        <v>3.4929999999999999</v>
+      <c r="M192" s="6">
+        <v>3493</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8595,8 +8607,8 @@
       <c r="H193" s="4">
         <v>884</v>
       </c>
-      <c r="I193" s="4">
-        <v>1.633</v>
+      <c r="I193" s="5">
+        <v>1633</v>
       </c>
       <c r="J193" s="4">
         <v>200</v>
@@ -8607,8 +8619,8 @@
       <c r="L193" s="4">
         <v>11</v>
       </c>
-      <c r="M193" s="5">
-        <v>3.5219999999999998</v>
+      <c r="M193" s="6">
+        <v>3522</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8633,11 +8645,11 @@
       <c r="G194" s="4">
         <v>344</v>
       </c>
-      <c r="H194" s="4">
-        <v>1.641</v>
-      </c>
-      <c r="I194" s="4">
-        <v>1.1160000000000001</v>
+      <c r="H194" s="5">
+        <v>1641</v>
+      </c>
+      <c r="I194" s="5">
+        <v>1116</v>
       </c>
       <c r="J194" s="4">
         <v>178</v>
@@ -8648,8 +8660,8 @@
       <c r="L194" s="4">
         <v>11</v>
       </c>
-      <c r="M194" s="5">
-        <v>4.117</v>
+      <c r="M194" s="6">
+        <v>4117</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8672,11 +8684,11 @@
       <c r="G195" s="4">
         <v>404</v>
       </c>
-      <c r="H195" s="4">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="I195" s="4">
-        <v>1.206</v>
+      <c r="H195" s="5">
+        <v>1239</v>
+      </c>
+      <c r="I195" s="5">
+        <v>1206</v>
       </c>
       <c r="J195" s="4">
         <v>186</v>
@@ -8687,8 +8699,8 @@
       <c r="L195" s="4">
         <v>15</v>
       </c>
-      <c r="M195" s="5">
-        <v>4.0599999999999996</v>
+      <c r="M195" s="6">
+        <v>4060</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8713,8 +8725,8 @@
       <c r="G196" s="4">
         <v>796</v>
       </c>
-      <c r="H196" s="4">
-        <v>1.849</v>
+      <c r="H196" s="5">
+        <v>1849</v>
       </c>
       <c r="I196" s="4">
         <v>975</v>
@@ -8728,8 +8740,8 @@
       <c r="L196" s="4">
         <v>21</v>
       </c>
-      <c r="M196" s="5">
-        <v>4.8079999999999998</v>
+      <c r="M196" s="6">
+        <v>4808</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8752,8 +8764,8 @@
       <c r="G197" s="4">
         <v>713</v>
       </c>
-      <c r="H197" s="4">
-        <v>1.47</v>
+      <c r="H197" s="5">
+        <v>1470</v>
       </c>
       <c r="I197" s="4">
         <v>984</v>
@@ -8767,8 +8779,8 @@
       <c r="L197" s="4">
         <v>14</v>
       </c>
-      <c r="M197" s="5">
-        <v>4.6479999999999997</v>
+      <c r="M197" s="6">
+        <v>4648</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8793,8 +8805,8 @@
       <c r="G198" s="4">
         <v>665</v>
       </c>
-      <c r="H198" s="4">
-        <v>1.4630000000000001</v>
+      <c r="H198" s="5">
+        <v>1463</v>
       </c>
       <c r="I198" s="4">
         <v>715</v>
@@ -8808,8 +8820,8 @@
       <c r="L198" s="4">
         <v>22</v>
       </c>
-      <c r="M198" s="5">
-        <v>4.1609999999999996</v>
+      <c r="M198" s="6">
+        <v>4161</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8823,8 +8835,8 @@
       <c r="D199" s="4">
         <v>9</v>
       </c>
-      <c r="E199" s="4">
-        <v>1.0309999999999999</v>
+      <c r="E199" s="5">
+        <v>1031</v>
       </c>
       <c r="F199" s="4">
         <v>554</v>
@@ -8832,8 +8844,8 @@
       <c r="G199" s="4">
         <v>699</v>
       </c>
-      <c r="H199" s="4">
-        <v>1.1759999999999999</v>
+      <c r="H199" s="5">
+        <v>1176</v>
       </c>
       <c r="I199" s="4">
         <v>726</v>
@@ -8847,8 +8859,8 @@
       <c r="L199" s="4">
         <v>22</v>
       </c>
-      <c r="M199" s="5">
-        <v>4.3490000000000002</v>
+      <c r="M199" s="6">
+        <v>4349</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8888,8 +8900,8 @@
       <c r="L200" s="4">
         <v>23</v>
       </c>
-      <c r="M200" s="5">
-        <v>3.9140000000000001</v>
+      <c r="M200" s="6">
+        <v>3914</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8903,8 +8915,8 @@
       <c r="D201" s="4">
         <v>57</v>
       </c>
-      <c r="E201" s="4">
-        <v>1.2609999999999999</v>
+      <c r="E201" s="5">
+        <v>1261</v>
       </c>
       <c r="F201" s="4">
         <v>529</v>
@@ -8927,8 +8939,8 @@
       <c r="L201" s="4">
         <v>35</v>
       </c>
-      <c r="M201" s="5">
-        <v>4.0519999999999996</v>
+      <c r="M201" s="6">
+        <v>4052</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8968,8 +8980,8 @@
       <c r="L202" s="4">
         <v>30</v>
       </c>
-      <c r="M202" s="5">
-        <v>3.6</v>
+      <c r="M202" s="6">
+        <v>3600</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -8983,8 +8995,8 @@
       <c r="D203" s="4">
         <v>138</v>
       </c>
-      <c r="E203" s="4">
-        <v>1.7370000000000001</v>
+      <c r="E203" s="5">
+        <v>1737</v>
       </c>
       <c r="F203" s="4">
         <v>330</v>
@@ -9007,8 +9019,8 @@
       <c r="L203" s="4">
         <v>35</v>
       </c>
-      <c r="M203" s="5">
-        <v>4.165</v>
+      <c r="M203" s="6">
+        <v>4165</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9024,8 +9036,8 @@
       <c r="D204" s="4">
         <v>28</v>
       </c>
-      <c r="E204" s="4">
-        <v>1.2629999999999999</v>
+      <c r="E204" s="5">
+        <v>1263</v>
       </c>
       <c r="F204" s="4">
         <v>294</v>
@@ -9033,8 +9045,8 @@
       <c r="G204" s="4">
         <v>586</v>
       </c>
-      <c r="H204" s="4">
-        <v>1.044</v>
+      <c r="H204" s="5">
+        <v>1044</v>
       </c>
       <c r="I204" s="4">
         <v>489</v>
@@ -9048,8 +9060,8 @@
       <c r="L204" s="4">
         <v>34</v>
       </c>
-      <c r="M204" s="5">
-        <v>3.79</v>
+      <c r="M204" s="6">
+        <v>3790</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9063,8 +9075,8 @@
       <c r="D205" s="4">
         <v>320</v>
       </c>
-      <c r="E205" s="4">
-        <v>1.881</v>
+      <c r="E205" s="5">
+        <v>1881</v>
       </c>
       <c r="F205" s="4">
         <v>156</v>
@@ -9087,8 +9099,8 @@
       <c r="L205" s="4">
         <v>29</v>
       </c>
-      <c r="M205" s="5">
-        <v>4.0949999999999998</v>
+      <c r="M205" s="6">
+        <v>4095</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9104,8 +9116,8 @@
       <c r="D206" s="4">
         <v>47</v>
       </c>
-      <c r="E206" s="4">
-        <v>1.42</v>
+      <c r="E206" s="5">
+        <v>1420</v>
       </c>
       <c r="F206" s="4">
         <v>114</v>
@@ -9128,8 +9140,8 @@
       <c r="L206" s="4">
         <v>25</v>
       </c>
-      <c r="M206" s="5">
-        <v>3.165</v>
+      <c r="M206" s="6">
+        <v>3165</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9143,8 +9155,8 @@
       <c r="D207" s="4">
         <v>437</v>
       </c>
-      <c r="E207" s="4">
-        <v>1.47</v>
+      <c r="E207" s="5">
+        <v>1470</v>
       </c>
       <c r="F207" s="4">
         <v>41</v>
@@ -9167,8 +9179,8 @@
       <c r="L207" s="4">
         <v>29</v>
       </c>
-      <c r="M207" s="5">
-        <v>3.25</v>
+      <c r="M207" s="6">
+        <v>3250</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9184,8 +9196,8 @@
       <c r="D208" s="4">
         <v>58</v>
       </c>
-      <c r="E208" s="4">
-        <v>1.073</v>
+      <c r="E208" s="5">
+        <v>1073</v>
       </c>
       <c r="F208" s="4">
         <v>46</v>
@@ -9208,8 +9220,8 @@
       <c r="L208" s="4">
         <v>17</v>
       </c>
-      <c r="M208" s="5">
-        <v>1.988</v>
+      <c r="M208" s="6">
+        <v>1988</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9247,8 +9259,8 @@
       <c r="L209" s="4">
         <v>26</v>
       </c>
-      <c r="M209" s="5">
-        <v>2.2610000000000001</v>
+      <c r="M209" s="6">
+        <v>2261</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9264,8 +9276,8 @@
       <c r="D210" s="4">
         <v>249</v>
       </c>
-      <c r="E210" s="4">
-        <v>1.111</v>
+      <c r="E210" s="5">
+        <v>1111</v>
       </c>
       <c r="F210" s="4">
         <v>26</v>
@@ -9288,8 +9300,8 @@
       <c r="L210" s="4">
         <v>45</v>
       </c>
-      <c r="M210" s="5">
-        <v>2.0350000000000001</v>
+      <c r="M210" s="6">
+        <v>2035</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9297,8 +9309,8 @@
       <c r="B211" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="4">
-        <v>1.1499999999999999</v>
+      <c r="C211" s="5">
+        <v>1150</v>
       </c>
       <c r="D211" s="4">
         <v>715</v>
@@ -9327,47 +9339,57 @@
       <c r="L211" s="4">
         <v>46</v>
       </c>
-      <c r="M211" s="5">
-        <v>3.2530000000000001</v>
+      <c r="M211" s="6">
+        <v>3253</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>2.8170000000000002</v>
-      </c>
-      <c r="D212" s="5">
-        <v>2.6320000000000001</v>
-      </c>
-      <c r="E212" s="5">
-        <v>17.097000000000001</v>
-      </c>
-      <c r="F212" s="5">
-        <v>7.8310000000000004</v>
-      </c>
-      <c r="G212" s="5">
-        <v>11.426</v>
-      </c>
-      <c r="H212" s="5">
-        <v>26.657</v>
-      </c>
-      <c r="I212" s="5">
-        <v>18.297000000000001</v>
-      </c>
-      <c r="J212" s="5">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="K212" s="5">
+      <c r="B212" s="8"/>
+      <c r="C212" s="6">
+        <v>2817</v>
+      </c>
+      <c r="D212" s="6">
+        <v>2632</v>
+      </c>
+      <c r="E212" s="6">
+        <v>17097</v>
+      </c>
+      <c r="F212" s="6">
+        <v>7831</v>
+      </c>
+      <c r="G212" s="6">
+        <v>11426</v>
+      </c>
+      <c r="H212" s="6">
+        <v>26657</v>
+      </c>
+      <c r="I212" s="6">
+        <v>18297</v>
+      </c>
+      <c r="J212" s="6">
+        <v>1816</v>
+      </c>
+      <c r="K212" s="7">
         <v>403</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="7">
         <v>579</v>
       </c>
-      <c r="M212" s="5">
-        <v>89.555000000000007</v>
+      <c r="M212" s="6">
+        <v>89555</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
